--- a/Leaderboard.xlsx
+++ b/Leaderboard.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58</v>
+        <v>-102</v>
       </c>
     </row>
   </sheetData>
